--- a/xlsx/堪萨斯州_intext.xlsx
+++ b/xlsx/堪萨斯州_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="855">
   <si>
     <t>堪萨斯州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_堪萨斯州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>堪薩斯州州旗</t>
+    <t>堪萨斯州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Kansas</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E7%89%B9%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%B2</t>
   </si>
   <si>
-    <t>派特·羅伯茲</t>
+    <t>派特·罗伯兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E9%87%8C%C2%B7%E8%8E%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>傑里·莫蘭</t>
+    <t>杰里·莫兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -221,37 +221,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%8F</t>
   </si>
   <si>
-    <t>蘇族</t>
+    <t>苏族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>史密斯縣 (堪薩斯州)</t>
+    <t>史密斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lebanon,_Kansas</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E4%BC%AF%E6%81%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧斯伯恩縣 (堪薩斯州)</t>
+    <t>奥斯伯恩县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Meades_Ranch_Triangulation_Station</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴頓縣 (堪薩斯州)</t>
+    <t>巴顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利縣 (堪薩斯州)</t>
+    <t>蒙哥马利县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coffeyville,_Kansas</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%90%8A%E5%A3%AB%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華萊士縣 (堪薩斯州)</t>
+    <t>华莱士县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mount_Sunflower</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (堪薩斯州)</t>
+    <t>堪萨斯城 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E6%B2%B3</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E6%B2%B3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德拉瓦河 (堪薩斯州)</t>
+    <t>德拉瓦河 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wakarusa_River</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%BC%E5%BE%B7_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉尼德 (堪薩斯州)</t>
+    <t>拉尼德 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fort_Scott_National_Historic_Site</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B0%8F%E5%BE%91</t>
   </si>
   <si>
-    <t>奧勒岡小徑</t>
+    <t>奥勒冈小径</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Santa_Fe_National_Historic_Trail</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%B5%B7%E6%B4%8B%E6%9A%A8%E5%A4%A7%E6%B0%A3%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國國家海洋暨大氣總署</t>
+    <t>美国国家海洋暨大气总署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alton,_Kansas</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Immigration_to_the_United_States</t>
@@ -665,85 +665,85 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蔡斯縣 (堪薩斯州)</t>
+    <t>蔡斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -761,19 +761,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美国人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E6%97%8F</t>
@@ -797,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英格蘭裔美國人</t>
+    <t>英格兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
@@ -857,25 +854,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>衛理公會</t>
+    <t>卫理公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>信義會</t>
+    <t>信义会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sprint</t>
@@ -893,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>曼哈頓 (堪薩斯州)</t>
+    <t>曼哈顿 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%87%E6%B2%83%E6%80%9D</t>
   </si>
   <si>
-    <t>萊文沃思</t>
+    <t>莱文沃思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E6%96%AF_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>堪薩斯州立大學</t>
+    <t>堪萨斯州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E5%A5%87%E5%A1%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -941,31 +938,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A5%87%E6%89%98%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威奇托州立大學</t>
+    <t>威奇托州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪薩斯市皇家</t>
+    <t>堪萨斯市皇家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/35%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>35號州際公路</t>
+    <t>35号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ring_road</t>
@@ -977,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%92%B0%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>外環道路</t>
+    <t>外环道路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>70號州際公路</t>
+    <t>70号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -1013,9 +1010,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞倫斯 (堪薩斯州)</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Bonner_Springs,_Kansas</t>
   </si>
   <si>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%A2%85%E5%9B%A0</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E5%A0%A1_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科特堡 (堪薩斯州)</t>
+    <t>斯科特堡 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Louisburg,_Kansas</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E7%89%B9%E7%B8%A3_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普拉特縣 (密蘇里州)</t>
+    <t>普拉特县 (密苏里州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kansas_City_International_Airport</t>
@@ -1187,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>塔爾薩</t>
+    <t>塔尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E8%90%A8%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>丹佛國際機場</t>
+    <t>丹佛国际机场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dodge_City_Regional_Airport</t>
@@ -1355,9 +1349,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
   </si>
   <si>
@@ -1373,21 +1364,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科罗拉多州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密苏里州</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Index_of_Kansas-related_articles</t>
   </si>
   <si>
@@ -1424,12 +1406,6 @@
     <t>en-Lists of places in Kansas</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Crime_in_Kansas</t>
   </si>
   <si>
@@ -1529,31 +1505,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%BC%97%E8%98%AD%E5%B8%95%E5%85%8B</t>
   </si>
   <si>
-    <t>歐弗蘭帕克</t>
+    <t>欧弗兰帕克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%8B%89%E8%A5%BF_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧拉西 (堪薩斯州)</t>
+    <t>奥拉西 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%A7%E5%85%8B%E8%96%A9</t>
   </si>
   <si>
-    <t>雷內克薩</t>
+    <t>雷内克萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E9%9C%A7_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>黎霧 (堪薩斯州)</t>
+    <t>黎雾 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8F%B2%E7%88%BE%E5%BE%B7_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>溫菲爾德 (堪薩斯州)</t>
+    <t>温菲尔德 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%87%E9%80%8A_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -1565,73 +1541,73 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%9D%88%E9%A0%93_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威靈頓 (堪薩斯州)</t>
+    <t>威灵顿 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾倫縣 (堪薩斯州)</t>
+    <t>艾伦县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安德森縣 (堪薩斯州)</t>
+    <t>安德森县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%87%E9%81%9C%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾奇遜縣 (堪薩斯州)</t>
+    <t>艾奇逊县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴伯縣 (堪薩斯州)</t>
+    <t>巴伯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%97%81%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波旁縣 (堪薩斯州)</t>
+    <t>波旁县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布朗縣 (堪薩斯州)</t>
+    <t>布朗县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E5%8B%92%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴特勒縣 (堪薩斯州)</t>
+    <t>巴特勒县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%89%98%E6%93%B4%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>學托擴縣 (堪薩斯州)</t>
+    <t>学托扩县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>切羅基縣 (堪薩斯州)</t>
+    <t>切罗基县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏延縣 (堪薩斯州)</t>
+    <t>夏延县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克拉克縣 (堪薩斯州)</t>
+    <t>克拉克县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -1643,169 +1619,169 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞德縣 (堪薩斯州)</t>
+    <t>克劳德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8F%B2%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科菲縣 (堪薩斯州)</t>
+    <t>科菲县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9B%BC%E5%A5%87%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科曼奇縣 (堪薩斯州)</t>
+    <t>科曼奇县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%88%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>考利縣 (堪薩斯州)</t>
+    <t>考利县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞福德縣 (堪薩斯州)</t>
+    <t>克劳福德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E9%96%8B%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>第開特縣 (堪薩斯州)</t>
+    <t>第开特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E9%87%91%E6%A3%AE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>迪金森縣 (堪薩斯州)</t>
+    <t>迪金森县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B0%BC%E8%8A%AC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>多尼芬縣 (堪薩斯州)</t>
+    <t>多尼芬县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>道格拉斯縣 (堪薩斯州)</t>
+    <t>道格拉斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E8%8C%B2%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>愛德華茲縣 (堪薩斯州)</t>
+    <t>爱德华兹县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%8B%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾克縣 (堪薩斯州)</t>
+    <t>艾克县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃利斯縣 (堪薩斯州)</t>
+    <t>埃利斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E6%96%AF%E6%B2%83%E6%80%9D%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃爾斯沃思縣 (堪薩斯州)</t>
+    <t>埃尔斯沃思县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%B0%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>芬尼縣 (堪薩斯州)</t>
+    <t>芬尼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>福特縣 (堪薩斯州)</t>
+    <t>福特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (堪薩斯州)</t>
+    <t>富兰克林县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉里縣 (堪薩斯州)</t>
+    <t>吉里县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%A4%AB%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>戈夫縣 (堪薩斯州)</t>
+    <t>戈夫县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E5%A7%86%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>葛蘭姆縣 (堪薩斯州)</t>
+    <t>葛兰姆县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭特縣 (堪薩斯州)</t>
+    <t>格兰特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格雷縣 (堪薩斯州)</t>
+    <t>格雷县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E5%88%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格里利縣 (堪薩斯州)</t>
+    <t>格里利县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E4%BC%8D%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格林伍德縣 (堪薩斯州)</t>
+    <t>格林伍德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (堪薩斯州)</t>
+    <t>汉密尔顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%8F%80%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈珀縣 (堪薩斯州)</t>
+    <t>哈珀县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%B6%AD%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈維縣 (堪薩斯州)</t>
+    <t>哈维县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%85%8B%E7%88%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈斯克爾縣 (堪薩斯州)</t>
+    <t>哈斯克尔县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%B2%BB%E6%9B%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>霍治曼縣 (堪薩斯州)</t>
+    <t>霍治曼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -1817,241 +1793,241 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (堪薩斯州)</t>
+    <t>杰佛逊县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%8E%84%E7%88%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>朱厄爾縣 (堪薩斯州)</t>
+    <t>朱厄尔县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰遜縣 (堪薩斯州)</t>
+    <t>约翰逊县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡尼縣 (堪薩斯州)</t>
+    <t>卡尼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>金曼縣 (堪薩斯州)</t>
+    <t>金曼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%8E%84%E7%93%A6%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>凱厄瓦縣 (堪薩斯州)</t>
+    <t>凯厄瓦县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%B2%9D%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉貝特縣 (堪薩斯州)</t>
+    <t>拉贝特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%81%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>雷恩縣 (堪薩斯州)</t>
+    <t>雷恩县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%87%E6%B2%83%E6%80%9D%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊文沃思縣 (堪薩斯州)</t>
+    <t>莱文沃思县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯縣 (堪薩斯州)</t>
+    <t>林肯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林縣 (堪薩斯州)</t>
+    <t>林县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A0%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛根縣 (堪薩斯州)</t>
+    <t>洛根县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊昂縣 (堪薩斯州)</t>
+    <t>莱昂县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%98%82%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬里昂縣 (堪薩斯州)</t>
+    <t>马里昂县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬歇爾縣 (堪薩斯州)</t>
+    <t>马歇尔县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E5%BC%97%E6%A3%AE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥克弗森縣 (堪薩斯州)</t>
+    <t>麦克弗森县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米德縣 (堪薩斯州)</t>
+    <t>米德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>邁阿密縣 (堪薩斯州)</t>
+    <t>迈阿密县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米切爾縣 (堪薩斯州)</t>
+    <t>米切尔县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%87%8C%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩里斯縣 (堪薩斯州)</t>
+    <t>摩里斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫頓縣 (堪薩斯州)</t>
+    <t>莫顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E9%A6%AC%E5%93%88%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼馬哈縣 (堪薩斯州)</t>
+    <t>尼马哈县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%AD%90%E8%82%96%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼歐肖縣 (堪薩斯州)</t>
+    <t>尼欧肖县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內斯縣 (堪薩斯州)</t>
+    <t>内斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾頓縣 (堪薩斯州)</t>
+    <t>诺顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A1%9E%E5%A5%87%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐塞奇縣 (堪薩斯州)</t>
+    <t>欧塞奇县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>渥太華縣 (堪薩斯州)</t>
+    <t>渥太华县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波尼縣 (堪薩斯州)</t>
+    <t>波尼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>菲利普斯縣 (堪薩斯州)</t>
+    <t>菲利普斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%93%A6%E7%89%B9%E7%B1%B3%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特瓦特米縣 (堪薩斯州)</t>
+    <t>波特瓦特米县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9E%97%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅林斯縣 (堪薩斯州)</t>
+    <t>罗林斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E8%AB%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>里諾縣 (堪薩斯州)</t>
+    <t>里诺县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%B8%95%E5%B8%83%E5%88%A9%E5%85%8B%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>里帕布利克縣 (堪薩斯州)</t>
+    <t>里帕布利克县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>賴斯縣 (堪薩斯州)</t>
+    <t>赖斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E5%88%A9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>賴利縣 (堪薩斯州)</t>
+    <t>赖利县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>魯克斯縣 (堪薩斯州)</t>
+    <t>鲁克斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BB%80%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉什縣 (堪薩斯州)</t>
+    <t>拉什县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A1%9E%E7%88%BE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉塞爾縣 (堪薩斯州)</t>
+    <t>拉塞尔县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%9E%97%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩林縣 (堪薩斯州)</t>
+    <t>萨林县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科特縣 (堪薩斯州)</t>
+    <t>斯科特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%A5%87%E5%A8%81%E5%85%8B%E5%8E%BF_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2063,55 +2039,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%8E%84%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇厄德縣 (堪薩斯州)</t>
+    <t>苏厄德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%96%E5%B0%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>肖尼縣 (堪薩斯州)</t>
+    <t>肖尼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E9%87%8C%E6%95%A6%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝里敦縣 (堪薩斯州)</t>
+    <t>谢里敦县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E6%9B%BC%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝爾曼縣 (堪薩斯州)</t>
+    <t>谢尔曼县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯塔福德縣 (堪薩斯州)</t>
+    <t>斯塔福德县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯坦頓縣 (堪薩斯州)</t>
+    <t>斯坦顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>史蒂文斯縣 (堪薩斯州)</t>
+    <t>史蒂文斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%A7%86%E5%A5%88%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>索姆奈縣 (堪薩斯州)</t>
+    <t>索姆奈县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托馬斯縣 (堪薩斯州)</t>
+    <t>托马斯县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%88%88%E5%8E%BF_(%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
@@ -2129,31 +2105,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華盛頓縣 (堪薩斯州)</t>
+    <t>华盛顿县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%A5%87%E6%89%98%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威奇托縣 (堪薩斯州)</t>
+    <t>威奇托县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E9%81%9C%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威爾遜縣 (堪薩斯州)</t>
+    <t>威尔逊县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍德森縣 (堪薩斯州)</t>
+    <t>伍德森县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E6%81%A9%E5%A4%9A%E7%89%B9%E7%B8%A3_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷恩多特縣 (堪薩斯州)</t>
+    <t>怀恩多特县 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_townships_in_Kansas</t>
@@ -2183,7 +2159,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -2231,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -2291,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -2303,7 +2279,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -2363,7 +2339,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -2417,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2435,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2447,19 +2423,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2477,7 +2453,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2489,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2501,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2513,25 +2489,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2561,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2579,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2591,7 +2567,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2603,13 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +2928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3418,7 +3388,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -3911,7 +3881,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -6576,7 +6546,7 @@
         <v>249</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6602,10 +6572,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6631,10 +6601,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6660,10 +6630,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6689,10 +6659,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6718,10 +6688,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6747,10 +6717,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6776,10 +6746,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6805,10 +6775,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6834,10 +6804,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6863,10 +6833,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6892,10 +6862,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6921,10 +6891,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6950,10 +6920,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6979,10 +6949,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7008,10 +6978,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7037,10 +7007,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7066,10 +7036,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7095,10 +7065,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7124,10 +7094,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7182,10 +7152,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7211,10 +7181,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -7240,10 +7210,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -7269,10 +7239,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7298,10 +7268,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7327,10 +7297,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7356,10 +7326,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7385,10 +7355,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7414,10 +7384,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7443,10 +7413,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7472,10 +7442,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7501,10 +7471,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7530,10 +7500,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7559,10 +7529,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7588,10 +7558,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>17</v>
@@ -7617,10 +7587,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7646,10 +7616,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7675,10 +7645,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7704,10 +7674,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>10</v>
@@ -7733,10 +7703,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7762,10 +7732,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7791,10 +7761,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7820,10 +7790,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7849,10 +7819,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7878,10 +7848,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7907,10 +7877,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7936,10 +7906,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7994,10 +7964,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8023,10 +7993,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8052,10 +8022,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8081,10 +8051,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8110,10 +8080,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8139,10 +8109,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8168,10 +8138,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8197,10 +8167,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8226,10 +8196,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8255,10 +8225,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8284,10 +8254,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8313,10 +8283,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8342,10 +8312,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8371,10 +8341,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8400,10 +8370,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8429,10 +8399,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8458,10 +8428,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8487,10 +8457,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8516,10 +8486,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8545,10 +8515,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8574,10 +8544,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8603,10 +8573,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8632,10 +8602,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8661,10 +8631,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8690,10 +8660,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8719,10 +8689,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8748,10 +8718,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8777,10 +8747,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8806,10 +8776,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8835,10 +8805,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8864,10 +8834,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8893,10 +8863,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8922,10 +8892,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8951,10 +8921,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8980,10 +8950,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9009,10 +8979,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9038,10 +9008,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9067,10 +9037,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9096,10 +9066,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9125,10 +9095,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9154,10 +9124,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9183,10 +9153,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F215" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9212,10 +9182,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9241,10 +9211,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9270,10 +9240,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9299,10 +9269,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9328,10 +9298,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9357,10 +9327,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9386,10 +9356,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9444,10 +9414,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9473,10 +9443,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9502,10 +9472,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9531,10 +9501,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9560,10 +9530,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9589,10 +9559,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
         <v>13</v>
@@ -9618,10 +9588,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9647,10 +9617,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9676,10 +9646,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>72</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9705,10 +9675,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9734,10 +9704,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9763,10 +9733,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9792,10 +9762,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9821,10 +9791,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9850,10 +9820,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9879,10 +9849,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9908,10 +9878,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9937,10 +9907,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
         <v>7</v>
@@ -9966,10 +9936,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9995,10 +9965,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10024,10 +9994,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10053,10 +10023,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10082,10 +10052,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10111,10 +10081,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10140,10 +10110,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10169,10 +10139,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10198,10 +10168,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10227,10 +10197,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10256,10 +10226,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10285,10 +10255,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10314,10 +10284,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10343,10 +10313,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10372,10 +10342,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10401,10 +10371,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10430,10 +10400,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10459,10 +10429,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10488,10 +10458,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10517,10 +10487,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10546,10 +10516,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10575,10 +10545,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10604,10 +10574,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10662,10 +10632,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10691,10 +10661,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10720,10 +10690,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10749,10 +10719,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10778,10 +10748,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10807,10 +10777,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10836,10 +10806,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10865,10 +10835,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10894,10 +10864,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10923,10 +10893,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10952,10 +10922,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10981,10 +10951,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11010,10 +10980,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11039,10 +11009,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11068,10 +11038,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11097,10 +11067,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11126,10 +11096,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11155,10 +11125,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11184,10 +11154,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11213,10 +11183,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11242,10 +11212,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11271,10 +11241,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11300,10 +11270,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11329,10 +11299,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11358,10 +11328,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11387,10 +11357,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11416,10 +11386,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11445,10 +11415,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11474,10 +11444,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11503,10 +11473,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11532,10 +11502,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11561,10 +11531,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11590,10 +11560,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11619,10 +11589,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11648,10 +11618,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11677,10 +11647,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11706,10 +11676,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11735,10 +11705,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11764,10 +11734,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11793,10 +11763,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11822,10 +11792,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11851,10 +11821,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11880,10 +11850,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11909,10 +11879,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11938,10 +11908,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11967,10 +11937,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11996,10 +11966,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12025,10 +11995,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12054,10 +12024,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12083,10 +12053,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12112,10 +12082,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12141,10 +12111,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>3</v>
@@ -12170,10 +12140,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12199,10 +12169,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12228,10 +12198,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12257,10 +12227,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12286,10 +12256,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12315,10 +12285,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12344,10 +12314,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12373,10 +12343,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12402,10 +12372,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12431,10 +12401,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F327" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12460,10 +12430,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12489,10 +12459,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12518,10 +12488,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12547,10 +12517,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12576,10 +12546,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12605,10 +12575,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12634,10 +12604,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12663,10 +12633,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12692,10 +12662,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12721,10 +12691,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12750,10 +12720,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12779,10 +12749,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12808,10 +12778,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12837,10 +12807,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12866,10 +12836,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12895,10 +12865,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12924,10 +12894,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12953,10 +12923,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12982,10 +12952,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13011,10 +12981,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13040,10 +13010,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13069,10 +13039,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13098,10 +13068,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13127,10 +13097,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13156,10 +13126,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13185,10 +13155,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13214,10 +13184,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13243,10 +13213,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13272,10 +13242,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13301,10 +13271,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F357" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13330,10 +13300,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13359,10 +13329,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13388,10 +13358,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13417,10 +13387,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13446,10 +13416,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13475,10 +13445,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F363" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13533,10 +13503,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F365" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13562,10 +13532,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F366" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13591,10 +13561,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F367" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13620,10 +13590,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F368" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G368" t="n">
         <v>4</v>
@@ -13649,10 +13619,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F369" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13678,10 +13648,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F370" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13707,10 +13677,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F371" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13765,10 +13735,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>4</v>
@@ -13794,10 +13764,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G374" t="n">
         <v>5</v>
@@ -13852,10 +13822,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13881,10 +13851,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13910,10 +13880,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13939,10 +13909,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13968,10 +13938,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -13997,10 +13967,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14026,10 +13996,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14055,10 +14025,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14084,10 +14054,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14113,10 +14083,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14142,10 +14112,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14171,10 +14141,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14200,10 +14170,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14229,10 +14199,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14258,10 +14228,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14287,10 +14257,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14316,10 +14286,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14374,10 +14344,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14461,10 +14431,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14490,10 +14460,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14548,10 +14518,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14577,10 +14547,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14635,10 +14605,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14693,10 +14663,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14722,10 +14692,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14751,10 +14721,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14780,10 +14750,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14809,10 +14779,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14838,10 +14808,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14867,10 +14837,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14896,10 +14866,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14925,10 +14895,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14954,10 +14924,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14983,10 +14953,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15012,10 +14982,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15041,10 +15011,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F417" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15070,10 +15040,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F418" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15099,10 +15069,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F419" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15128,10 +15098,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F420" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15157,10 +15127,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F421" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15186,10 +15156,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F422" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15215,10 +15185,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F423" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15244,10 +15214,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F424" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15273,10 +15243,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F425" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15302,10 +15272,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F426" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15331,10 +15301,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F427" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15360,10 +15330,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F428" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15389,10 +15359,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F429" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15418,10 +15388,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F430" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15447,10 +15417,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F431" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15476,10 +15446,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F432" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15505,10 +15475,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F433" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15534,10 +15504,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F434" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15563,10 +15533,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F435" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15592,10 +15562,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F436" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15621,10 +15591,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F437" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15650,10 +15620,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F438" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15679,10 +15649,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F439" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15708,10 +15678,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F440" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G440" t="n">
         <v>3</v>
@@ -15737,10 +15707,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F441" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15766,10 +15736,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F442" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15795,10 +15765,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F443" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15824,10 +15794,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F444" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15853,10 +15823,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F445" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15882,10 +15852,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F446" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15911,10 +15881,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F447" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15923,64 +15893,6 @@
         <v>4</v>
       </c>
       <c r="I447" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="s">
-        <v>0</v>
-      </c>
-      <c r="C448" t="s">
-        <v>1</v>
-      </c>
-      <c r="D448" t="n">
-        <v>447</v>
-      </c>
-      <c r="E448" t="s">
-        <v>469</v>
-      </c>
-      <c r="F448" t="s">
-        <v>863</v>
-      </c>
-      <c r="G448" t="n">
-        <v>8</v>
-      </c>
-      <c r="H448" t="s">
-        <v>4</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="s">
-        <v>0</v>
-      </c>
-      <c r="C449" t="s">
-        <v>1</v>
-      </c>
-      <c r="D449" t="n">
-        <v>448</v>
-      </c>
-      <c r="E449" t="s">
-        <v>469</v>
-      </c>
-      <c r="F449" t="s">
-        <v>864</v>
-      </c>
-      <c r="G449" t="n">
-        <v>1</v>
-      </c>
-      <c r="H449" t="s">
-        <v>4</v>
-      </c>
-      <c r="I449" t="n">
         <v>3</v>
       </c>
     </row>
